--- a/analysis/metadata/P11_2/P11_2_mapping.xlsx
+++ b/analysis/metadata/P11_2/P11_2_mapping.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -780,7 +780,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C18EB1</t>
+          <t>C19EB1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1428,826 +1428,802 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2C11RB1</t>
+          <t>2C16EB1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MFD10290</t>
+          <t>MFD10292</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2C16EB1</t>
+          <t>2C1SB1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MFD10292</t>
+          <t>MFD10293</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2C1SB1</t>
+          <t>2C14RB1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MFD10293</t>
+          <t>MFD10294</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2C14RB1</t>
+          <t>2C11SB1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MFD10294</t>
+          <t>MFD10295</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2C11SB1</t>
+          <t>2C26SB1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MFD10295</t>
+          <t>MFD10296</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2C26SB1</t>
+          <t>2C25RB1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MFD10296</t>
+          <t>MFD10297</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2C25RB1</t>
+          <t>2C17SB1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MFD10297</t>
+          <t>MFD10298</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2C17SB1</t>
+          <t>2C16RB1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MFD10298</t>
+          <t>MFD10299</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2C16RB1</t>
+          <t>2C9RB1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MFD10299</t>
+          <t>MFD10300</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2C9RB1</t>
+          <t>2C23RB1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MFD10300</t>
+          <t>MFD10301</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2C23RB1</t>
+          <t>2C3RB1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MFD10301</t>
+          <t>MFD10302</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2C3RB1</t>
+          <t>2C27EB1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MFD10302</t>
+          <t>MFD10303</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2C27EB1</t>
+          <t>2C15SB1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MFD10303</t>
+          <t>MFD10304</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2C15SB1</t>
+          <t>2C29EB1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MFD10304</t>
+          <t>MFD10305</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2C29EB1</t>
+          <t>2C25SB1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MFD10305</t>
+          <t>MFD10306</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2C25SB1</t>
+          <t>2C32RB1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MFD10306</t>
+          <t>MFD10307</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2C32RB1</t>
+          <t>2C25EB1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MFD10307</t>
+          <t>MFD10308</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2C25EB1</t>
+          <t>2C32SB1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MFD10308</t>
+          <t>MFD10309</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2C32SB1</t>
+          <t>2C8SB1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MFD10309</t>
+          <t>MFD10310</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2C8SB1</t>
+          <t>2C28RB1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MFD10310</t>
+          <t>MFD10311</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2C28RB1</t>
+          <t>2C5RB1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MFD10311</t>
+          <t>MFD10312</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2C5RB1</t>
+          <t>2C29SB1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MFD10312</t>
+          <t>MFD10313</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2C29SB1</t>
+          <t>2C12SB1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MFD10313</t>
+          <t>MFD10314</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2C12SB1</t>
+          <t>2C7RB1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MFD10314</t>
+          <t>MFD10315</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2C7RB1</t>
+          <t>2C21SB1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MFD10315</t>
+          <t>MFD10316</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2C21SB1</t>
+          <t>2C14SB1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MFD10316</t>
+          <t>MFD10317</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2C14SB1</t>
+          <t>2C15RB1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MFD10317</t>
+          <t>MFD10318</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2C15RB1</t>
+          <t>2C8RB1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MFD10318</t>
+          <t>MFD10320</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2C8RB1</t>
+          <t>2C21EB1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MFD10320</t>
+          <t>MFD10321</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2C21EB1</t>
+          <t>2C13RB1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MFD10321</t>
+          <t>MFD10324</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2C13RB1</t>
+          <t>2C30EB1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MFD10324</t>
+          <t>MFD10325</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2C30EB1</t>
+          <t>2C8EB1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MFD10325</t>
+          <t>MFD10326</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2C8EB1</t>
+          <t>2C3SB1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MFD10326</t>
+          <t>MFD10327</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2C3SB1</t>
+          <t>2C12RB1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MFD10327</t>
+          <t>MFD10328</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2C12RB1</t>
+          <t>2C10EB1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MFD10328</t>
+          <t>MFD10329</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2C10EB1</t>
+          <t>2C10RB1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MFD10329</t>
+          <t>MFD10330</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2C10RB1</t>
+          <t>2C19SB1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MFD10330</t>
+          <t>MFD10331</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2C19SB1</t>
+          <t>2C29RB1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MFD10331</t>
+          <t>MFD10332</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2C29RB1</t>
+          <t>2C28SB1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MFD10332</t>
+          <t>MFD10333</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2C28SB1</t>
+          <t>2C31SB1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MFD10333</t>
+          <t>MFD10334</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2C31SB1</t>
+          <t>2C31EB1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MFD10334</t>
+          <t>MFD10335</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2C31EB1</t>
+          <t>2C30SB1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MFD10335</t>
+          <t>MFD10336</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2C30SB1</t>
+          <t>2C20SB1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MFD10336</t>
+          <t>MFD10337</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2C20SB1</t>
+          <t>2C31RB1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MFD10337</t>
+          <t>MFD10338</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2C31RB1</t>
+          <t>2C30RB1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MFD10338</t>
+          <t>MFD10340</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2C11RB1</t>
+          <t>2C28EB1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MFD10339</t>
+          <t>MFD10342</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2C30RB1</t>
+          <t>2C18SB1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MFD10340</t>
+          <t>MFD10343</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2C28EB1</t>
+          <t>2C13SB1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MFD10342</t>
+          <t>MFD10344</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2C18SB1</t>
+          <t>2C26EB1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MFD10343</t>
+          <t>MFD10345</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2C13SB1</t>
+          <t>2C18RB1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MFD10344</t>
+          <t>MFD10346</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2C26EB1</t>
+          <t>2C20EB1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MFD10345</t>
+          <t>MFD10347</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2C18RB1</t>
+          <t>2C27RB1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MFD10346</t>
+          <t>MFD10348</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2C20EB1</t>
+          <t>2C9SB1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MFD10347</t>
+          <t>MFD10349</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2C27RB1</t>
+          <t>2C27SB1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MFD10348</t>
+          <t>MFD10350</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2C9SB1</t>
+          <t>2C9EB1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MFD10349</t>
+          <t>MFD10351</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2C27SB1</t>
+          <t>2C33RB1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MFD10350</t>
+          <t>MFD10352</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2C9EB1</t>
+          <t>2C7SB1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MFD10351</t>
+          <t>MFD10353</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2C33RB1</t>
+          <t>2C19EB1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MFD10352</t>
+          <t>MFD10354</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2C7SB1</t>
+          <t>2C4RB1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MFD10353</t>
+          <t>MFD10355</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2C19EB1</t>
+          <t>2C24EB1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MFD10354</t>
+          <t>MFD10356</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2C4RB1</t>
+          <t>2C21RB1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MFD10355</t>
+          <t>MFD10358</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2C24EB1</t>
+          <t>2C33SB1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MFD10356</t>
+          <t>MFD10359</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2C21RB1</t>
+          <t>2C26RB1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MFD10358</t>
+          <t>MFD10360</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2C33SB1</t>
+          <t>2C4SB1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MFD10359</t>
+          <t>MFD10361</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2C26RB1</t>
+          <t>2C1RB1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MFD10360</t>
+          <t>MFD10362</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2C4SB1</t>
+          <t>2C6RB1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MFD10361</t>
+          <t>MFD10363</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2C1RB1</t>
+          <t>2C24SB1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
-        <is>
-          <t>MFD10362</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2C6RB1</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>MFD10363</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2C24SB1</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
         <is>
           <t>MFD10283</t>
         </is>
